--- a/RPG Game Test Plan.xlsx
+++ b/RPG Game Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard-PC\Desktop\2250_Unity_Project\fpan25_SE2250_RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F35966-F178-463D-9514-628AF2F908CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAA37BB-C67F-4B7E-932C-E4395BB1D166}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="99">
   <si>
     <t>Expected Result</t>
   </si>
@@ -228,19 +228,127 @@
     <t>Random Attack Pattern</t>
   </si>
   <si>
-    <t>Checks if the attack pattern is behaving as expected, and tests the level of difficulty desired</t>
+    <t>Attack Targeter</t>
+  </si>
+  <si>
+    <t>Checks if the attack is properly targeting the hero</t>
   </si>
   <si>
     <t>1. Run program 
 2. Place player in different angles around the boss
-3.</t>
+3. See if the projectiles hit the player</t>
+  </si>
+  <si>
+    <t>The projectiles successfully target the player</t>
+  </si>
+  <si>
+    <t>The Game continues to run, and projectiles continue to be fired at a regular interval</t>
+  </si>
+  <si>
+    <t>The projectiles fire in multiple directions, 1 towards the hero and 2 in random directions around the hero</t>
+  </si>
+  <si>
+    <t>The projectiles successfully fire multiple times, targetting the player and the areas around the player</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>1. Run program 
+2. Place player in different angles around the boss
+3. See if the projectiles act accordingly.</t>
+  </si>
+  <si>
+    <t>Checks if the attack pattern is behaving as expected, which are multiple projectiles aimed in the general area of the hero</t>
+  </si>
+  <si>
+    <t>Testing the aiming vector of the circular attack pattern using the vector (sin(x),cos(x),0)</t>
+  </si>
+  <si>
+    <t>1. Run program
+2. Watch to see if the projectile results are to be expected</t>
+  </si>
+  <si>
+    <t>The projectiles fire in a circle, adding one degree at a time, creating a spiral effect</t>
+  </si>
+  <si>
+    <t>The Game continues to run, and projectiles continue to be fired at a regular interval, in the expected patterns</t>
+  </si>
+  <si>
+    <t>The projectiles fire in a circle, from, but result in multiple spirals instead of only one</t>
+  </si>
+  <si>
+    <t>Circular attack pattern 2</t>
+  </si>
+  <si>
+    <t>Circular attack pattern 1</t>
+  </si>
+  <si>
+    <t>Testing the aiming vector of the circular attack pattern using the vector (sin(2x),cos(2x),0)</t>
+  </si>
+  <si>
+    <t>The projectiles fire in a circle, adding 2 degree at a time, creating a spiral effect</t>
+  </si>
+  <si>
+    <t>The projectiles fire in a circle, from, but result in 3 spirals instead of only one</t>
+  </si>
+  <si>
+    <t>Circular Attack pattern 3</t>
+  </si>
+  <si>
+    <t>Testing the aiming vector of the circular attack pattern using the vector (sin(3x),cos(3x),0)</t>
+  </si>
+  <si>
+    <t>The projectiles fire in a circle, adding 3 degree at a time, creating a spiral effect</t>
+  </si>
+  <si>
+    <t>The projectiles fire in a circle, from, but result in 4 spirals instead of only one</t>
+  </si>
+  <si>
+    <t>Player Movement Test</t>
+  </si>
+  <si>
+    <t>Testing all functions of the player in the new scene</t>
+  </si>
+  <si>
+    <t>1. Run program
+2. Use the WASD keys to test movement
+3. Let the projectiles hit the hero to test death</t>
+  </si>
+  <si>
+    <t>Player movement and projectile damage works</t>
+  </si>
+  <si>
+    <t>The Game continues to run, boss continues to fire projectiles until boss dies</t>
+  </si>
+  <si>
+    <t>All player movement works</t>
+  </si>
+  <si>
+    <t>Boss death test</t>
+  </si>
+  <si>
+    <t>Testing the boss interactions with projectiles and losing all hp</t>
+  </si>
+  <si>
+    <t>1. Run program
+2. defeat the boss</t>
+  </si>
+  <si>
+    <t>Boss successfully dies</t>
+  </si>
+  <si>
+    <t>The game ends, and the win text appears</t>
+  </si>
+  <si>
+    <t>Boss dies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -334,11 +442,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -836,8 +939,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1455,7 +1558,7 @@
       </c>
       <c r="B16" s="31">
         <f xml:space="preserve"> SUM('Test 2'!$G2)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" s="31">
         <f xml:space="preserve"> SUM('Test 2'!$G3)</f>
@@ -4488,7 +4591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -8123,10 +8226,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H345"/>
+  <dimension ref="A1:H344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8180,8 +8283,8 @@
         <v>18</v>
       </c>
       <c r="G2" s="36">
-        <f>COUNTIF(H9:H999,"Pass")</f>
-        <v>0</v>
+        <f>COUNTIF(H10:H998,"Pass")</f>
+        <v>6</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>15</v>
@@ -8205,7 +8308,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="36">
-        <f>COUNTIF(H9:H998,"Fail")</f>
+        <f>COUNTIF(H10:H997,"Fail")</f>
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -8226,7 +8329,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="36">
-        <f>COUNTIF(H9:H998,"NA")</f>
+        <f>COUNTIF(H10:H997,"NA")</f>
         <v>0</v>
       </c>
       <c r="H4" s="11"/>
@@ -8287,149 +8390,242 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="75.599999999999994" x14ac:dyDescent="0.25">
       <c r="A9" s="57">
         <v>1</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="113.4" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <v>2</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <v>3</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
         <v>4</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
         <v>5</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
+      <c r="B13" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>6</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
+      <c r="B14" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="25"/>
+      <c r="B15" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="58">
-        <v>9</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="42"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
@@ -8568,27 +8764,27 @@
       <c r="G34" s="43"/>
       <c r="H34" s="25"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="27"/>
-    </row>
-    <row r="37" spans="1:8" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="46"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="11"/>
@@ -11619,22 +11815,22 @@
       <c r="H339" s="12"/>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340" s="11"/>
+      <c r="A340" s="13"/>
       <c r="B340" s="12"/>
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
       <c r="E340" s="11"/>
       <c r="F340" s="11"/>
-      <c r="G340" s="11"/>
+      <c r="G340" s="13"/>
       <c r="H340" s="12"/>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="13"/>
       <c r="B341" s="12"/>
-      <c r="C341" s="11"/>
-      <c r="D341" s="11"/>
-      <c r="E341" s="11"/>
-      <c r="F341" s="11"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="13"/>
+      <c r="E341" s="13"/>
+      <c r="F341" s="13"/>
       <c r="G341" s="13"/>
       <c r="H341" s="12"/>
     </row>
@@ -11668,16 +11864,6 @@
       <c r="G344" s="13"/>
       <c r="H344" s="12"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345" s="13"/>
-      <c r="B345" s="12"/>
-      <c r="C345" s="13"/>
-      <c r="D345" s="13"/>
-      <c r="E345" s="13"/>
-      <c r="F345" s="13"/>
-      <c r="G345" s="13"/>
-      <c r="H345" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B7:H7"/>
@@ -11686,7 +11872,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H36" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H35" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$H$1:$H$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/RPG Game Test Plan.xlsx
+++ b/RPG Game Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard-PC\Desktop\2250_Unity_Project\fpan25_SE2250_RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAA37BB-C67F-4B7E-932C-E4395BB1D166}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B29392-53D2-49C8-B5BD-FEADA648FDDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -903,6 +903,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -938,9 +941,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1444,22 +1444,22 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
@@ -4608,7 +4608,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="68"/>
+      <c r="A1" s="69"/>
       <c r="B1" s="49" t="s">
         <v>11</v>
       </c>
@@ -4629,7 +4629,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="50" t="s">
         <v>16</v>
       </c>
@@ -4709,23 +4709,23 @@
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:8" s="20" customFormat="1" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
@@ -8228,7 +8228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -8245,7 +8245,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="68"/>
+      <c r="A1" s="69"/>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -8266,7 +8266,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
@@ -8346,23 +8346,23 @@
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:8" s="20" customFormat="1" ht="38.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
@@ -8550,7 +8550,7 @@
       <c r="A15" s="9">
         <v>7</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="63" t="s">
         <v>93</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -8576,7 +8576,7 @@
       <c r="A16" s="9">
         <v>8</v>
       </c>
-      <c r="B16" s="75"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -8586,7 +8586,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="75"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="75"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -8606,7 +8606,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="B19" s="75"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
-      <c r="B20" s="75"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -11903,7 +11903,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="68"/>
+      <c r="A1" s="69"/>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -11922,7 +11922,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="21" t="s">
         <v>16</v>
       </c>
@@ -11992,23 +11992,23 @@
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:8" s="20" customFormat="1" ht="38.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
